--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -948,25 +948,25 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6753246753246753</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L14">
         <v>156</v>
       </c>
       <c r="M14">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1104,25 +1104,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5657492354740061</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L20">
         <v>185</v>
       </c>
       <c r="M20">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="10:17">
